--- a/biology/Médecine/Alexis_Pujol/Alexis_Pujol.xlsx
+++ b/biology/Médecine/Alexis_Pujol/Alexis_Pujol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexis Pujol, né le 10 octobre 1739 au Poujol, près de Béziers et mort le 15 septembre 1804 à Castres, est un médecin français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études médicales à Montpellier, où il est reçu docteur en 1762, puis il travaille d'abord à Bédarieux, puis à Castres. Quoiqu'il ait exercé sur un petit théâtre, Pujol eut cependant une pratique considérable et publia de nombreux mémoires, certains couronnés par diverses sociétés savantes.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Essai sur les maladies de la face (Paris, in-12) ;
 Observations sur la fièvre miliaire épidémique qui régna dans le Languedoc en 1782 (1783) ;
